--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail11 Features.xlsx
@@ -5918,7 +5918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5929,29 +5929,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5972,115 +5970,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6097,72 +6085,66 @@
         <v>2.823305146718227e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.955627593680691</v>
+        <v>2.02164284170709e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>11.95658882842029</v>
+        <v>3.984347272383313e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.02164284170709e-06</v>
+        <v>0.09608545017370497</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.984347272383313e-06</v>
+        <v>0.3596873419237521</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09608545017370497</v>
+        <v>0.1383154055855949</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3596873419237521</v>
+        <v>1.819674689333182</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1383154055855949</v>
+        <v>1.587963501772675</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.771032995734177</v>
+        <v>4.382087226704812</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.587963501772675</v>
+        <v>2.577991947384857e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.382087226704812</v>
+        <v>84290530.53703038</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.577991947384857e-15</v>
+        <v>1.393770500359855e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>84290530.53703038</v>
+        <v>18.31635832854253</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.393770500359855e-06</v>
+        <v>0.0002028774029723728</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>18.31635832854253</v>
+        <v>12.0337922587532</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002028774029723728</v>
+        <v>1.071913953874739</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.0337922587532</v>
+        <v>0.02937911415384074</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.071913953874739</v>
+        <v>2.421694717924145</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02937911415384074</v>
+        <v>0.9605346732966015</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.421694717924145</v>
+        <v>1.664309561604186</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9605346732966015</v>
+        <v>28</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.664309561604186</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2450702725650785</v>
       </c>
     </row>
@@ -6177,72 +6159,66 @@
         <v>2.117748109861476e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.024897288609059</v>
+        <v>1.496943645446855e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8.060428762661553</v>
+        <v>4.006921096129987e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.496943645446855e-06</v>
+        <v>0.08733882822912528</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.006921096129987e-06</v>
+        <v>0.3680969446335504</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08733882822912528</v>
+        <v>0.142827144640623</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3680969446335504</v>
+        <v>1.846938336484376</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.142827144640623</v>
+        <v>1.829110344839292</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.807761812694932</v>
+        <v>3.736015521868162</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.829110344839292</v>
+        <v>2.354121977804206e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.736015521868162</v>
+        <v>91198652.19543426</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.354121977804206e-15</v>
+        <v>1.29573356595856e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>91198652.19543426</v>
+        <v>19.57968957105002</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.29573356595856e-06</v>
+        <v>0.0002392488296416072</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>19.57968957105002</v>
+        <v>13.31092458660345</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002392488296416072</v>
+        <v>1.039031012874255</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.31092458660345</v>
+        <v>0.042390278304111</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.039031012874255</v>
+        <v>2.245745405564504</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.042390278304111</v>
+        <v>0.9583815702875024</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.245745405564504</v>
+        <v>1.611946480368288</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9583815702875024</v>
+        <v>28</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.611946480368288</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2833102169735675</v>
       </c>
     </row>
@@ -6257,72 +6233,66 @@
         <v>1.674729633374933e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.7350785722911498</v>
+        <v>1.100239625129445e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3.070893770202746</v>
+        <v>4.021969182767154e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.100239625129445e-06</v>
+        <v>0.07122164324047618</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.021969182767154e-06</v>
+        <v>0.3599002198802634</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07122164324047618</v>
+        <v>0.1343220283210537</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3599002198802634</v>
+        <v>1.878382079679539</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1343220283210537</v>
+        <v>1.683727312631291</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.854910493350057</v>
+        <v>3.900819189341922</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.683727312631291</v>
+        <v>2.159407795935079e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.900819189341922</v>
+        <v>98549849.85009775</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.159407795935079e-15</v>
+        <v>1.208540994473544e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>98549849.85009775</v>
+        <v>20.97232594677648</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.208540994473544e-06</v>
+        <v>0.0002652847186645836</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>20.97232594677648</v>
+        <v>11.49469403869289</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002652847186645836</v>
+        <v>1.394721595886506</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.49469403869289</v>
+        <v>0.03505153693160183</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.394721595886506</v>
+        <v>2.483807439264905</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03505153693160183</v>
+        <v>0.9595789541125643</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.483807439264905</v>
+        <v>1.509503558244294</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9595789541125643</v>
+        <v>28</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.509503558244294</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.311167057943321</v>
       </c>
     </row>
@@ -6337,72 +6307,66 @@
         <v>1.441133599977234e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3316532886874001</v>
+        <v>7.907849251717935e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.1526667123319658</v>
+        <v>4.031186616998279e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.907849251717935e-07</v>
+        <v>0.04667469911127101</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.031186616998279e-06</v>
+        <v>0.3198073859365824</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04667469911127101</v>
+        <v>0.1042178014417495</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3198073859365824</v>
+        <v>1.885840413533513</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1042178014417495</v>
+        <v>1.698213740471092</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.868577495899832</v>
+        <v>4.188585829655229</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.698213740471092</v>
+        <v>1.425103867808415e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.188585829655229</v>
+        <v>151067290.5342451</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.425103867808415e-15</v>
+        <v>7.885599713548815e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>151067290.5342451</v>
+        <v>32.52276033497991</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.885599713548815e-07</v>
+        <v>0.0002025838613311547</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>32.52276033497991</v>
+        <v>10.70085066513983</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002025838613311547</v>
+        <v>1.366295174991564</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.70085066513983</v>
+        <v>0.02319751431441466</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.366295174991564</v>
+        <v>2.817158002791678</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02319751431441466</v>
+        <v>0.9599412959263863</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.817158002791678</v>
+        <v>1.507369270324257</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9599412959263863</v>
+        <v>28</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.507369270324257</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3168497743189471</v>
       </c>
     </row>
@@ -6417,72 +6381,66 @@
         <v>1.354096657744178e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7325584266235715</v>
+        <v>5.477071375646548e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8498408345711033</v>
+        <v>4.035724910230499e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.477071375646548e-07</v>
+        <v>0.01883749282101626</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.035724910230499e-06</v>
+        <v>0.2527120420142264</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01883749282101626</v>
+        <v>0.06406138541503112</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2527120420142264</v>
+        <v>1.900730476126889</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06406138541503112</v>
+        <v>1.881881761822912</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.885849366093483</v>
+        <v>3.514749451141812</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.881881761822912</v>
+        <v>1.086667907453574e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.514749451141812</v>
+        <v>197585355.4455767</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.086667907453574e-15</v>
+        <v>6.047136137308683e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>197585355.4455767</v>
+        <v>42.42348542634328</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.047136137308683e-07</v>
+        <v>0.0001724895590958833</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>42.42348542634328</v>
+        <v>11.26189018582131</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001724895590958833</v>
+        <v>1.099325993535917</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.26189018582131</v>
+        <v>0.02187688019951857</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.099325993535917</v>
+        <v>2.730725683346929</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02187688019951857</v>
+        <v>0.9610119816134054</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.730725683346929</v>
+        <v>1.465091763599256</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9610119816134054</v>
+        <v>28</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.465091763599256</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2856822947470959</v>
       </c>
     </row>
@@ -6497,72 +6455,66 @@
         <v>1.341894229168837e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.77155948996463</v>
+        <v>4.071056262377035e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8668386762842326</v>
+        <v>4.036603957919215e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.071056262377035e-07</v>
+        <v>-0.004546077113956003</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.036603957919215e-06</v>
+        <v>0.1878822535080428</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.004546077113956003</v>
+        <v>0.03523796047378761</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1878822535080428</v>
+        <v>1.910401519384765</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03523796047378761</v>
+        <v>2.117007243563138</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.897086268153446</v>
+        <v>3.64042403452765</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.117007243563138</v>
+        <v>1.012935142906132e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.64042403452765</v>
+        <v>224651323.8377475</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.012935142906132e-15</v>
+        <v>5.373509044852274e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>224651323.8377475</v>
+        <v>51.1210309050723</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.373509044852274e-07</v>
+        <v>0.0001769951223895353</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>51.1210309050723</v>
+        <v>11.60115437537292</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001769951223895353</v>
+        <v>1.071016300970163</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.60115437537292</v>
+        <v>0.02382120410099806</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.071016300970163</v>
+        <v>2.528621373645203</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02382120410099806</v>
+        <v>0.9619359898567695</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.528621373645203</v>
+        <v>1.416671016149729</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9619359898567695</v>
+        <v>28</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.416671016149729</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2629418966518949</v>
       </c>
     </row>
@@ -6577,72 +6529,66 @@
         <v>1.35304083228054e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.7741972695737481</v>
+        <v>4.164709054643629e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8748965608494146</v>
+        <v>4.034772709332466e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.164709054643629e-07</v>
+        <v>-0.02151198091699648</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.034772709332466e-06</v>
+        <v>0.1398250726984719</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02151198091699648</v>
+        <v>0.0199744057976779</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1398250726984719</v>
+        <v>1.909296155393161</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0199744057976779</v>
+        <v>2.180703418445314</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.902332243047973</v>
+        <v>3.653752828937544</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.180703418445314</v>
+        <v>1.005558301131707e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.653752828937544</v>
+        <v>226657601.149064</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.005558301131707e-15</v>
+        <v>5.315359122769426e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>226657601.149064</v>
+        <v>51.65921847651437</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.315359122769426e-07</v>
+        <v>0.0001809490349163589</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>51.65921847651437</v>
+        <v>10.62902183733092</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001809490349163589</v>
+        <v>1.157564470731073</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.62902183733092</v>
+        <v>0.02044291720788893</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.157564470731073</v>
+        <v>2.649263191615814</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02044291720788893</v>
+        <v>0.9607307291610683</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.649263191615814</v>
+        <v>1.429174301407322</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9607307291610683</v>
+        <v>30</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.429174301407322</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2436181814698929</v>
       </c>
     </row>
@@ -6657,72 +6603,66 @@
         <v>1.363300857290785e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.8127341037878788</v>
+        <v>4.279683890411941e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8280715255690705</v>
+        <v>4.030986593271332e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.279683890411941e-07</v>
+        <v>-0.03343531821316703</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.030986593271332e-06</v>
+        <v>0.1085570002097444</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03343531821316703</v>
+        <v>0.0128844946034472</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1085570002097444</v>
+        <v>1.909295760680219</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0128844946034472</v>
+        <v>2.06054219047764</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.905814604911602</v>
+        <v>3.653450783113342</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.06054219047764</v>
+        <v>1.005724575297675e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.653450783113342</v>
+        <v>223938118.9191144</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.005724575297675e-15</v>
+        <v>5.375961976349992e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>223938118.9191144</v>
+        <v>50.43535871626616</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.375961976349992e-07</v>
+        <v>0.0002006508186250805</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>50.43535871626616</v>
+        <v>9.400872868438634</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002006508186250805</v>
+        <v>1.453057707042907</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.400872868438634</v>
+        <v>0.017732799151803</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.453057707042907</v>
+        <v>2.721654848130916</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.017732799151803</v>
+        <v>0.9592839146492952</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.721654848130916</v>
+        <v>1.439870932897494</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9592839146492952</v>
+        <v>11</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.439870932897494</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2343738592151506</v>
       </c>
     </row>
@@ -6737,72 +6677,66 @@
         <v>1.364453827240529e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.8742981520236252</v>
+        <v>4.396749842364544e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.7042613170422922</v>
+        <v>4.025805710367642e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.396749842364544e-07</v>
+        <v>-0.04199295388761252</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.025805710367642e-06</v>
+        <v>0.09013220180044179</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04199295388761252</v>
+        <v>0.00987918926068068</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09013220180044179</v>
+        <v>1.910150547853188</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.00987918926068068</v>
+        <v>2.013992648629325</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.905645196022309</v>
+        <v>3.666821826091027</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.013992648629325</v>
+        <v>9.984032115192588e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.666821826091027</v>
+        <v>226307766.2429147</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>9.984032115192588e-16</v>
+        <v>5.321653534802739e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>226307766.2429147</v>
+        <v>51.13342521237614</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.321653534802739e-07</v>
+        <v>0.0001993973191457783</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>51.13342521237614</v>
+        <v>9.551793380921303</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001993973191457783</v>
+        <v>1.459361037938331</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.551793380921303</v>
+        <v>0.01819236471184269</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.459361037938331</v>
+        <v>2.765068384669421</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01819236471184269</v>
+        <v>0.9582684303867225</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.765068384669421</v>
+        <v>1.40421605143128</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9582684303867225</v>
+        <v>40</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.40421605143128</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2415723098186455</v>
       </c>
     </row>
@@ -6817,72 +6751,66 @@
         <v>1.35515885904328e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.9414111773406908</v>
+        <v>4.510825825450906e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.5265826392431689</v>
+        <v>4.01963449621089e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.510825825450906e-07</v>
+        <v>-0.04841797969841704</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.01963449621089e-06</v>
+        <v>0.08020070958466897</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04841797969841704</v>
+        <v>0.008772831295841726</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08020070958466897</v>
+        <v>1.914228889949473</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.008772831295841726</v>
+        <v>1.975355888011974</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.910085595131898</v>
+        <v>3.699490391049949</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.975355888011974</v>
+        <v>9.808481505625488e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.699490391049949</v>
+        <v>222556287.574738</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>9.808481505625488e-16</v>
+        <v>5.425229085702951e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>222556287.574738</v>
+        <v>48.58268511719334</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.425229085702951e-07</v>
+        <v>0.000177755347866736</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>48.58268511719334</v>
+        <v>10.91481591537916</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000177755347866736</v>
+        <v>1.135676569133619</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.91481591537916</v>
+        <v>0.02117656455795269</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.135676569133619</v>
+        <v>2.692377906787523</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02117656455795269</v>
+        <v>0.9585289224773045</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.692377906787523</v>
+        <v>1.411683950520135</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9585289224773045</v>
+        <v>40</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.411683950520135</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2539235664312778</v>
       </c>
     </row>
@@ -6897,72 +6825,66 @@
         <v>1.336058276318532e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.00371370978389</v>
+        <v>4.616598973052155e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.3201199918349373</v>
+        <v>4.01274932530003e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.616598973052155e-07</v>
+        <v>-0.05371416705615058</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.01274932530003e-06</v>
+        <v>0.07479264735285307</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05371416705615058</v>
+        <v>0.00847735371159635</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.07479264735285307</v>
+        <v>1.9154737942003</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.00847735371159635</v>
+        <v>1.963049092782126</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.911255405977023</v>
+        <v>3.738785872860061</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.963049092782126</v>
+        <v>9.603386297297426e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.738785872860061</v>
+        <v>226145259.760743</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>9.603386297297426e-16</v>
+        <v>5.315847606068722e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>226145259.760743</v>
+        <v>49.11332946453696</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.315847606068722e-07</v>
+        <v>0.0001805620967182299</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>49.11332946453696</v>
+        <v>11.76543796186456</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001805620967182299</v>
+        <v>1.058923581296885</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.76543796186456</v>
+        <v>0.02499440401458352</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.058923581296885</v>
+        <v>2.476198430822749</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02499440401458352</v>
+        <v>0.9570071591235552</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.476198430822749</v>
+        <v>1.433643434378355</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9570071591235552</v>
+        <v>40</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.433643434378355</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2547145411929076</v>
       </c>
     </row>
@@ -6977,72 +6899,66 @@
         <v>1.307504861302567e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.054147363608632</v>
+        <v>4.710266100326573e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.1070448944987699</v>
+        <v>4.005319856989902e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.710266100326573e-07</v>
+        <v>-0.05858254331962341</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.005319856989902e-06</v>
+        <v>0.07161557342539647</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05858254331962341</v>
+        <v>0.008559862375839633</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.07161557342539647</v>
+        <v>1.910729999596128</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.008559862375839633</v>
+        <v>1.935319012259771</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.905812906128165</v>
+        <v>3.79614816370016</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.935319012259771</v>
+        <v>9.315352114391351e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.79614816370016</v>
+        <v>231576238.4004816</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>9.315352114391351e-16</v>
+        <v>5.192301153291292e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>231576238.4004816</v>
+        <v>49.95595503294449</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.192301153291292e-07</v>
+        <v>0.0001819902886402564</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>49.95595503294449</v>
+        <v>11.06041551588721</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001819902886402564</v>
+        <v>1.112707322587039</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.06041551588721</v>
+        <v>0.02226338001415673</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.112707322587039</v>
+        <v>2.600590500082451</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02226338001415673</v>
+        <v>0.9575314550017039</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.600590500082451</v>
+        <v>1.429533759929616</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9575314550017039</v>
+        <v>40</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.429533759929616</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.248903482695778</v>
       </c>
     </row>
@@ -7057,72 +6973,66 @@
         <v>1.269867100554201e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.085989325049594</v>
+        <v>4.788868426084442e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.08681653966695713</v>
+        <v>3.9974863668915e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.788868426084442e-07</v>
+        <v>-0.0627359149120731</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.9974863668915e-06</v>
+        <v>0.07124413103618286</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.0627359149120731</v>
+        <v>0.009011758963017983</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.07124413103618286</v>
+        <v>1.908519461307001</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.009011758963017983</v>
+        <v>1.887782796089406</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.905276023971133</v>
+        <v>3.906105046396831</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.887782796089406</v>
+        <v>8.798279366108265e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.906105046396831</v>
+        <v>246718619.731085</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>8.798279366108265e-16</v>
+        <v>4.87770081046524e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>246718619.731085</v>
+        <v>53.55519453156705</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.87770081046524e-07</v>
+        <v>0.000195511602082933</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>53.55519453156705</v>
+        <v>9.860869466306411</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000195511602082933</v>
+        <v>1.320144437397398</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.860869466306411</v>
+        <v>0.01901091211526346</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.320144437397398</v>
+        <v>2.678347830042883</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01901091211526346</v>
+        <v>0.9588141873198487</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.678347830042883</v>
+        <v>1.429558334210842</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9588141873198487</v>
+        <v>40</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.429558334210842</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2643502012596446</v>
       </c>
     </row>
@@ -7137,72 +7047,66 @@
         <v>1.225668853261878e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.096776199711181</v>
+        <v>4.836712828205224e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.2457179266835179</v>
+        <v>3.989457773243974e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.836712828205224e-07</v>
+        <v>-0.06576619922431619</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.989457773243974e-06</v>
+        <v>0.07337158351142106</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06576619922431619</v>
+        <v>0.009708946034077301</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.07337158351142106</v>
+        <v>1.903159521971433</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.009708946034077301</v>
+        <v>1.886381801968198</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.901839613050716</v>
+        <v>4.091309575494905</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.886381801968198</v>
+        <v>8.019751291366355e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.091309575494905</v>
+        <v>276940567.6276991</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>8.019751291366355e-16</v>
+        <v>4.345313370689795e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>276940567.6276991</v>
+        <v>61.50834705668115</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.345313370689795e-07</v>
+        <v>0.0002111607329877816</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>61.50834705668115</v>
+        <v>9.412293018738373</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002111607329877816</v>
+        <v>1.469960518191501</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.412293018738373</v>
+        <v>0.01870699537058506</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.469960518191501</v>
+        <v>2.663466408940826</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01870699537058506</v>
+        <v>0.9586246071415243</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.663466408940826</v>
+        <v>1.432700219490057</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9586246071415243</v>
+        <v>40</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.432700219490057</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3432420556617046</v>
       </c>
     </row>
@@ -7217,72 +7121,66 @@
         <v>1.177182688143212e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.08575462818802</v>
+        <v>4.826470724465777e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.3601596548872057</v>
+        <v>3.981399553328694e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.826470724465777e-07</v>
+        <v>-0.06833066410045363</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.981399553328694e-06</v>
+        <v>0.07643964474785306</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06833066410045363</v>
+        <v>0.01051241424145288</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.07643964474785306</v>
+        <v>1.905004159818197</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01051241424145288</v>
+        <v>1.85802082516908</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.903229075631224</v>
+        <v>4.35603880328641</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.85802082516908</v>
+        <v>7.074603510861426e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.35603880328641</v>
+        <v>314614622.2900519</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>7.074603510861426e-16</v>
+        <v>3.828598988264183e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>314614622.2900519</v>
+        <v>70.02609555220157</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.828598988264183e-07</v>
+        <v>0.0002003707623099068</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>70.02609555220157</v>
+        <v>10.72227099414214</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002003707623099068</v>
+        <v>1.203598861827186</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.72227099414214</v>
+        <v>0.02303604452017061</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.203598861827186</v>
+        <v>2.652991293642266</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02303604452017061</v>
+        <v>0.9582564773802617</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.652991293642266</v>
+        <v>1.41850791843689</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9582564773802617</v>
+        <v>40</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.41850791843689</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.5344026870298708</v>
       </c>
     </row>
@@ -7297,72 +7195,66 @@
         <v>1.125272107613607e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.049096120574587</v>
+        <v>4.755664846063559e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.4086365716085587</v>
+        <v>3.973402286104075e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.755664846063559e-07</v>
+        <v>-0.07043770973110997</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.973402286104075e-06</v>
+        <v>0.0800896828841383</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.07043770973110997</v>
+        <v>0.01137540687897235</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.0800896828841383</v>
+        <v>1.92104361908303</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01137540687897235</v>
+        <v>2.129147789940676</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.931403276653187</v>
+        <v>3.620544465913123</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.129147789940676</v>
+        <v>6.265624050684998e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.620544465913123</v>
+        <v>378178676.1459425</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.265624050684998e-16</v>
+        <v>3.175133495553764e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>378178676.1459425</v>
+        <v>89.61039821624772</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.175133495553764e-07</v>
+        <v>0.0002047125761213569</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>89.61039821624772</v>
+        <v>13.07262528091278</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002047125761213569</v>
+        <v>0.991730306868022</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>13.07262528091278</v>
+        <v>0.03498405512398148</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>0.991730306868022</v>
+        <v>2.495389126796625</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.03498405512398148</v>
+        <v>0.9587775144095161</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.495389126796625</v>
+        <v>1.292460354516262</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9587775144095161</v>
+        <v>38</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.292460354516262</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.7914376743866869</v>
       </c>
     </row>
@@ -7377,72 +7269,66 @@
         <v>1.072431718922627e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.989079317105367</v>
+        <v>4.594508803858118e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.3912418416930836</v>
+        <v>3.965598978720006e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.594508803858118e-07</v>
+        <v>-0.07140732051498312</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.965598978720006e-06</v>
+        <v>0.08343725160342062</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.07140732051498312</v>
+        <v>0.01205894991084908</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.08343725160342062</v>
+        <v>1.932346105447631</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01205894991084908</v>
+        <v>2.124171065918987</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.949949271607244</v>
+        <v>3.689265555406131</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.124171065918987</v>
+        <v>6.055514972047978e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.689265555406131</v>
+        <v>408067168.6485362</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>6.055514972047978e-16</v>
+        <v>2.975257569309686e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>408067168.6485362</v>
+        <v>100.8357172084822</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.975257569309686e-07</v>
+        <v>0.0002178505334584122</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>100.8357172084822</v>
+        <v>13.65876605615041</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002178505334584122</v>
+        <v>1.02869098448819</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>13.65876605615041</v>
+        <v>0.04064260729799214</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.02869098448819</v>
+        <v>2.723062318761403</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.04064260729799214</v>
+        <v>0.960201893551099</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.723062318761403</v>
+        <v>1.104681954731003</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.960201893551099</v>
+        <v>37</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.104681954731003</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.137067061298163</v>
       </c>
     </row>
@@ -7457,72 +7343,66 @@
         <v>1.021484833741382e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.9148869908908471</v>
+        <v>4.371918048854062e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.3336691259270612</v>
+        <v>3.958123383227968e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>4.371918048854062e-07</v>
+        <v>-0.07127544982106264</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.958123383227968e-06</v>
+        <v>0.086060667904819</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.07127544982106264</v>
+        <v>0.01248385407776371</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.086060667904819</v>
+        <v>1.932173826929725</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01248385407776371</v>
+        <v>2.005463583721074</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.949560275993621</v>
+        <v>4.526201576250566</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.005463583721074</v>
+        <v>4.892634364609487e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.526201576250566</v>
+        <v>507661842.6513718</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.892634364609487e-16</v>
+        <v>2.391000863950095e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>507661842.6513718</v>
+        <v>126.0932402194466</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.391000863950095e-07</v>
+        <v>0.0002259851470393068</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>126.0932402194466</v>
+        <v>13.74003910292592</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002259851470393068</v>
+        <v>1.125817424140354</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>13.74003910292592</v>
+        <v>0.04266343637752255</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.125817424140354</v>
+        <v>3.158633794800572</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.04266343637752255</v>
+        <v>0.9591525914515826</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.158633794800572</v>
+        <v>1.111887440444566</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9591525914515826</v>
+        <v>37</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.111887440444566</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>2.09136994523161</v>
       </c>
     </row>
@@ -7537,72 +7417,66 @@
         <v>9.734764626751462e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.8356066168007865</v>
+        <v>4.137599247199857e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.2573608854074037</v>
+        <v>3.9510593864328e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.137599247199857e-07</v>
+        <v>-0.07026224898293414</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.9510593864328e-06</v>
+        <v>0.08867782697271782</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.07026224898293414</v>
+        <v>0.01279736269371205</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.08867782697271782</v>
+        <v>1.933923859093302</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01279736269371205</v>
+        <v>1.995325692605476</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.949701048197137</v>
+        <v>5.217562397842327</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.995325692605476</v>
+        <v>3.149924376786628e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.217562397842327</v>
+        <v>778900515.7125705</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.149924376786628e-16</v>
+        <v>1.56091390670108e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>778900515.7125705</v>
+        <v>191.1015062592682</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.56091390670108e-07</v>
+        <v>0.0001697168345027082</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>191.1015062592682</v>
+        <v>13.23078421279829</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001697168345027082</v>
+        <v>1.093378110022052</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>13.23078421279829</v>
+        <v>0.02970955149645175</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.093378110022052</v>
+        <v>3.932582278268207</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.02970955149645175</v>
+        <v>0.9577412208597003</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.932582278268207</v>
+        <v>1.127865556974605</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9577412208597003</v>
+        <v>37</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.127865556974605</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>3.648845401713933</v>
       </c>
     </row>
@@ -7617,72 +7491,66 @@
         <v>9.280001405143668e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.7579124940777877</v>
+        <v>3.912666826561024e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.1722541920421881</v>
+        <v>3.944459575373277e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.912666826561024e-07</v>
+        <v>-0.06843704729574995</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.944459575373277e-06</v>
+        <v>0.09228389719492616</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.06843704729574995</v>
+        <v>0.01319628918652769</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.09228389719492616</v>
+        <v>1.93613088665945</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01319628918652769</v>
+        <v>2.005677342649837</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.955741057287189</v>
+        <v>5.627095915173911</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.005677342649837</v>
+        <v>2.406661278802579e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.627095915173911</v>
+        <v>1020501341.395982</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.406661278802579e-16</v>
+        <v>1.190047390778638e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1020501341.395982</v>
+        <v>250.6352379571486</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.190047390778638e-07</v>
+        <v>0.0001589598482248636</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>250.6352379571486</v>
+        <v>11.89243880512819</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001589598482248636</v>
+        <v>1.161366517558078</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.89243880512819</v>
+        <v>0.02248170734705913</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.161366517558078</v>
+        <v>3.929975918234563</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02248170734705913</v>
+        <v>0.9556762300239515</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.929975918234563</v>
+        <v>1.045777685592954</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9556762300239515</v>
+        <v>37</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.045777685592954</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>3.382129454710447</v>
       </c>
     </row>
@@ -7697,72 +7565,66 @@
         <v>8.840262873966198e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.6868208725283699</v>
+        <v>3.698706725694221e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.08454132030556849</v>
+        <v>3.938380825313737e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.698706725694221e-07</v>
+        <v>-0.06552360040208703</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.938380825313737e-06</v>
+        <v>0.09795435250562574</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.06552360040208703</v>
+        <v>0.0138834471885841</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.09795435250562574</v>
+        <v>1.926981234910608</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0138834471885841</v>
+        <v>2.025580798347198</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.951111495629383</v>
+        <v>4.771534280594118</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.025580798347198</v>
+        <v>3.013012788634146e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.771534280594118</v>
+        <v>766563470.1287764</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.013012788634146e-16</v>
+        <v>1.575316556621335e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>766563470.1287764</v>
+        <v>177.050523025767</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.575316556621335e-07</v>
+        <v>0.0001925160899407599</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>177.050523025767</v>
+        <v>11.44945406881548</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001925160899407599</v>
+        <v>1.234646197063374</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.44945406881548</v>
+        <v>0.02523693393653838</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.234646197063374</v>
+        <v>3.37077035548474</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02523693393653838</v>
+        <v>0.9536078958402827</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.37077035548474</v>
+        <v>1.05027491961831</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9536078958402827</v>
+        <v>37</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.05027491961831</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>2.170349382039758</v>
       </c>
     </row>
@@ -7777,72 +7639,66 @@
         <v>8.406025634437086e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.6247658163308352</v>
+        <v>3.497578474114866e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.003278668660695594</v>
+        <v>3.932892297456671e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.497578474114866e-07</v>
+        <v>-0.06169543291789125</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.932892297456671e-06</v>
+        <v>0.1059408778941499</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.06169543291789125</v>
+        <v>0.01502456499830547</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1059408778941499</v>
+        <v>1.894210916544133</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01502456499830547</v>
+        <v>2.107460238506972</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.891979925950125</v>
+        <v>6.135757025669128</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.107460238506972</v>
+        <v>3.323298285794623e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>6.135757025669128</v>
+        <v>704859706.6653893</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.323298285794623e-16</v>
+        <v>1.70371327031712e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>704859706.6653893</v>
+        <v>165.1105002303187</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.70371327031712e-07</v>
+        <v>0.0001917173334964007</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>165.1105002303187</v>
+        <v>12.83000930256294</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001917173334964007</v>
+        <v>1.027720970110807</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>12.83000930256294</v>
+        <v>0.0315584251414416</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.027720970110807</v>
+        <v>3.02424857075977</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0315584251414416</v>
+        <v>0.9540241480636927</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.02424857075977</v>
+        <v>1.329492639084649</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9540241480636927</v>
+        <v>36</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.329492639084649</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>1.893142533967187</v>
       </c>
     </row>
@@ -7857,72 +7713,66 @@
         <v>7.978090734798039e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.5669622527371917</v>
+        <v>3.313218757761883e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.06999777966167375</v>
+        <v>3.927976776346641e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.313218757761883e-07</v>
+        <v>-0.05850624434095129</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.927976776346641e-06</v>
+        <v>0.1131415339375374</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05850624434095129</v>
+        <v>0.01622039394028741</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1131415339375374</v>
+        <v>1.885103225132368</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01622039394028741</v>
+        <v>2.037631875243736</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.874752087296139</v>
+        <v>5.374278855384135</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.037631875243736</v>
+        <v>7.678039907909714e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.374278855384135</v>
+        <v>306280955.4551727</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.678039907909714e-16</v>
+        <v>3.919996841018227e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>306280955.4551727</v>
+        <v>72.02617494552075</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.919996841018227e-07</v>
+        <v>0.0002023004865478936</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>72.02617494552075</v>
+        <v>9.041875993022412</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002023004865478936</v>
+        <v>1.71170863056269</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.041875993022412</v>
+        <v>0.01653918177200412</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.71170863056269</v>
+        <v>3.134982138667327</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01653918177200412</v>
+        <v>0.9556754720464193</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.134982138667327</v>
+        <v>1.527265198402289</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9556754720464193</v>
+        <v>30</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.527265198402289</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.8252143829584857</v>
       </c>
     </row>
@@ -7937,72 +7787,66 @@
         <v>7.565991171481109e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.5068151888159824</v>
+        <v>3.141247163091894e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.1455109984463259</v>
+        <v>3.923505410106676e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3.141247163091894e-07</v>
+        <v>-0.05686428109490739</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.923505410106676e-06</v>
+        <v>0.1184475208175408</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05686428109490739</v>
+        <v>0.01726048059060364</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1184475208175408</v>
+        <v>1.885951013420748</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01726048059060364</v>
+        <v>1.90551454795009</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.871741629610027</v>
+        <v>4.405489492953467</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.90551454795009</v>
+        <v>1.458252942104135e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.405489492953467</v>
+        <v>162933429.5101565</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.458252942104135e-15</v>
+        <v>7.376288050954225e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>162933429.5101565</v>
+        <v>38.71268190547148</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.376288050954225e-07</v>
+        <v>0.0001955676956823696</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>38.71268190547148</v>
+        <v>8.86951720817823</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001955676956823696</v>
+        <v>1.794970379926128</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.86951720817823</v>
+        <v>0.01538498509810915</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.794970379926128</v>
+        <v>2.990124655613004</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01538498509810915</v>
+        <v>0.9568367533813946</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.990124655613004</v>
+        <v>1.525723439100604</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9568367533813946</v>
+        <v>1</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.525723439100604</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.3377324896441293</v>
       </c>
     </row>
@@ -8017,72 +7861,66 @@
         <v>7.182752316021085e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.4438425056539383</v>
+        <v>2.971520125701712e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.2301020209640159</v>
+        <v>3.919323744851197e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.971520125701712e-07</v>
+        <v>-0.05685383403258764</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.919323744851197e-06</v>
+        <v>0.1226957445070661</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05685383403258764</v>
+        <v>0.01828281600436758</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1226957445070661</v>
+        <v>1.878427330562479</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01828281600436758</v>
+        <v>1.877779240777056</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.860791394975544</v>
+        <v>3.871833181826824</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.877779240777056</v>
+        <v>1.887938861129866e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.871833181826824</v>
+        <v>125679750.4505346</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.887938861129866e-15</v>
+        <v>9.548960369157978e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>125679750.4505346</v>
+        <v>29.8207488703174</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>9.548960369157978e-07</v>
+        <v>0.0001676386070121698</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>29.8207488703174</v>
+        <v>9.705813746163882</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001676386070121698</v>
+        <v>1.288231372184893</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.705813746163882</v>
+        <v>0.01579202960108402</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.288231372184893</v>
+        <v>2.86111474603186</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01579202960108402</v>
+        <v>0.9570197189044178</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.86111474603186</v>
+        <v>1.501172196215997</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9570197189044178</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.501172196215997</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.247257976085437</v>
       </c>
     </row>
@@ -8097,72 +7935,66 @@
         <v>6.839672026293272e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.3812900480713687</v>
+        <v>2.80795228785108e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.324747186393755</v>
+        <v>3.915307218285314e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.80795228785108e-07</v>
+        <v>-0.05794199672578675</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.915307218285314e-06</v>
+        <v>0.1271038801485673</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05794199672578675</v>
+        <v>0.01950812337419192</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1271038801485673</v>
+        <v>1.87124967868934</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01950812337419192</v>
+        <v>1.857950147652298</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.849944788491232</v>
+        <v>3.794707757444829</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.857950147652298</v>
+        <v>1.965461452521875e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.794707757444829</v>
+        <v>120956325.4337448</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.965461452521875e-15</v>
+        <v>9.911849062315083e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>120956325.4337448</v>
+        <v>28.75555143173096</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>9.911849062315083e-07</v>
+        <v>0.0001700317991660005</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>28.75555143173096</v>
+        <v>10.86964460197448</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001700317991660005</v>
+        <v>1.104095259542492</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.86964460197448</v>
+        <v>0.02008911658663924</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.104095259542492</v>
+        <v>2.594415819352046</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02008911658663924</v>
+        <v>0.9574921780949097</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.594415819352046</v>
+        <v>1.547574424880468</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9574921780949097</v>
+        <v>1</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.547574424880468</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2249886936208318</v>
       </c>
     </row>
@@ -8177,72 +8009,66 @@
         <v>6.541555500437192e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3206175343596505</v>
+        <v>2.655779615515341e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.4305929319735466</v>
+        <v>3.911384516866496e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.655779615515341e-07</v>
+        <v>-0.05945885743892863</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.911384516866496e-06</v>
+        <v>0.1317145335479508</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05945885743892863</v>
+        <v>0.02087947561092753</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1317145335479508</v>
+        <v>1.879500114265124</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02087947561092753</v>
+        <v>1.864293218936282</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.855102809635067</v>
+        <v>3.805461491247997</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.864293218936282</v>
+        <v>1.954368876516937e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.805461491247997</v>
+        <v>129703677.3192755</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.954368876516937e-15</v>
+        <v>9.302063301766143e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>129703677.3192755</v>
+        <v>32.87843342626077</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>9.302063301766143e-07</v>
+        <v>0.0001786132845439254</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>32.87843342626077</v>
+        <v>10.98176890155931</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001786132845439254</v>
+        <v>1.119955758719716</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>10.98176890155931</v>
+        <v>0.02154062783582595</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.119955758719716</v>
+        <v>2.477993254091938</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.02154062783582595</v>
+        <v>0.9578961941726307</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.477993254091938</v>
+        <v>1.535032254865428</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9578961941726307</v>
+        <v>24</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.535032254865428</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.208019883211273</v>
       </c>
     </row>
@@ -8257,72 +8083,66 @@
         <v>6.288682100180192e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.2614950279241973</v>
+        <v>2.516541465749337e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.5470234554018676</v>
+        <v>3.907524809171218e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.516541465749337e-07</v>
+        <v>-0.06095926911164174</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.907524809171218e-06</v>
+        <v>0.1361396010198775</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.06095926911164174</v>
+        <v>0.02224599136590085</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1361396010198775</v>
+        <v>1.881807431568765</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02224599136590085</v>
+        <v>1.867273887092038</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.855796709594999</v>
+        <v>3.819057421204515</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.867273887092038</v>
+        <v>1.940478451771555e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.819057421204515</v>
+        <v>130717728.7482779</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.940478451771555e-15</v>
+        <v>9.221481367033446e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>130717728.7482779</v>
+        <v>33.15719710671021</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.221481367033446e-07</v>
+        <v>0.0001820665817398299</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>33.15719710671021</v>
+        <v>9.681677254022016</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001820665817398299</v>
+        <v>1.247986554230291</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.681677254022016</v>
+        <v>0.0170659881811143</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.247986554230291</v>
+        <v>2.633544545641842</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.0170659881811143</v>
+        <v>0.9570508484100442</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.633544545641842</v>
+        <v>1.520786418812192</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9570508484100442</v>
+        <v>24</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.520786418812192</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1863573025841193</v>
       </c>
     </row>
@@ -8337,72 +8157,66 @@
         <v>6.077501338178023e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.2025510943947278</v>
+        <v>2.393780225448648e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.6722842132590889</v>
+        <v>3.903717629846701e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.393780225448648e-07</v>
+        <v>-0.06224659824013996</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.903717629846701e-06</v>
+        <v>0.1401923312311232</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.06224659824013996</v>
+        <v>0.02352553142772986</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1401923312311232</v>
+        <v>1.884284069532437</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02352553142772986</v>
+        <v>1.862771324039814</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.855190663704212</v>
+        <v>3.818967584523986</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.862771324039814</v>
+        <v>1.940569747751055e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.818967584523986</v>
+        <v>127926808.5551243</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.940569747751055e-15</v>
+        <v>9.41945679137544e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>127926808.5551243</v>
+        <v>31.75794466820905</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.41945679137544e-07</v>
+        <v>0.0001957234948507879</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>31.75794466820905</v>
+        <v>8.876187953530222</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001957234948507879</v>
+        <v>1.521409000873917</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.876187953530222</v>
+        <v>0.01542041073521379</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.521409000873917</v>
+        <v>2.709508709840037</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01542041073521379</v>
+        <v>0.9556734019320932</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.709508709840037</v>
+        <v>1.54607931219091</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9556734019320932</v>
+        <v>24</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.54607931219091</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1723154894181223</v>
       </c>
     </row>
@@ -8417,72 +8231,66 @@
         <v>5.90040000977653e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.1417194021713568</v>
+        <v>2.288860987189792e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.8072603927776156</v>
+        <v>3.89996144499687e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.288860987189792e-07</v>
+        <v>-0.06319388870049754</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.89996144499687e-06</v>
+        <v>0.143850422392115</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.06319388870049754</v>
+        <v>0.02468447271284306</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.143850422392115</v>
+        <v>1.888458733930074</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02468447271284306</v>
+        <v>1.877566127479327</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.859424997790388</v>
+        <v>3.796931368576467</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.877566127479327</v>
+        <v>1.963160045513308e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.796931368576467</v>
+        <v>127360199.3677321</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.963160045513308e-15</v>
+        <v>9.458171859536658e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>127360199.3677321</v>
+        <v>31.84367384932172</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.458171859536658e-07</v>
+        <v>0.0001844396338683261</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>31.84367384932172</v>
+        <v>9.72316002395806</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001844396338683261</v>
+        <v>1.31098327068953</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.72316002395806</v>
+        <v>0.01743689363261976</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.31098327068953</v>
+        <v>2.704202418606905</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01743689363261976</v>
+        <v>0.9551109300135704</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.704202418606905</v>
+        <v>1.554043139308076</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9551109300135704</v>
+        <v>24</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.554043139308076</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1787123215994066</v>
       </c>
     </row>
@@ -8497,72 +8305,66 @@
         <v>5.74842605479183e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.07912316652179806</v>
+        <v>2.190141536818691e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.953026174078321</v>
+        <v>3.89627225387174e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.190141536818691e-07</v>
+        <v>-0.06332530286490469</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.89627225387174e-06</v>
+        <v>0.1470236332235153</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.06332530286490469</v>
+        <v>0.02562421468404246</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1470236332235153</v>
+        <v>1.88409479535047</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02562421468404246</v>
+        <v>1.891873242227158</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.85421600059254</v>
+        <v>3.748712628678806</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.891873242227158</v>
+        <v>2.013988110470037e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.748712628678806</v>
+        <v>116539120.6391006</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.013988110470037e-15</v>
+        <v>1.031492884013422e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>116539120.6391006</v>
+        <v>27.35271093555476</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.031492884013422e-06</v>
+        <v>0.0001797147274920864</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>27.35271093555476</v>
+        <v>11.33585753877344</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001797147274920864</v>
+        <v>1.079339392936262</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>11.33585753877344</v>
+        <v>0.02309364191251536</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.079339392936262</v>
+        <v>2.494086938499882</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.02309364191251536</v>
+        <v>0.9547676878157995</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.494086938499882</v>
+        <v>1.558841314814939</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9547676878157995</v>
+        <v>24</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.558841314814939</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1927047861169461</v>
       </c>
     </row>
@@ -8939,7 +8741,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.470078824220712</v>
+        <v>1.44063941125068</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.547911354922162</v>
@@ -9028,7 +8830,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.486795206174686</v>
+        <v>1.460988417646977</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.355061293423714</v>
@@ -9117,7 +8919,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.482477096856226</v>
+        <v>1.456577266276697</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.456120337915858</v>
@@ -9206,7 +9008,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.477393549569392</v>
+        <v>1.457253681322327</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.66680338773178</v>
@@ -9295,7 +9097,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.457085663349772</v>
+        <v>1.439581005446366</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.586107124542135</v>
@@ -9384,7 +9186,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.431170736195802</v>
+        <v>1.416000559546885</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.410352065355185</v>
@@ -9473,7 +9275,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.428757564697086</v>
+        <v>1.411996008217384</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.408573342359709</v>
@@ -9562,7 +9364,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.426606995330605</v>
+        <v>1.409128782926704</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.409553917272519</v>
@@ -9651,7 +9453,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.432810367638875</v>
+        <v>1.414173459917344</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.410534720229554</v>
@@ -9740,7 +9542,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.462025272325023</v>
+        <v>1.439233319705008</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.27987326289873</v>
@@ -9829,7 +9631,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.474800378780302</v>
+        <v>1.454064400323526</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.595033489916735</v>
@@ -9918,7 +9720,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.468805169244122</v>
+        <v>1.449269799502306</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.339253332323486</v>
@@ -10007,7 +9809,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.466889333378024</v>
+        <v>1.450465072729589</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.408282811326385</v>
@@ -10096,7 +9898,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.457333172419539</v>
+        <v>1.442409655089459</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.386487136568373</v>
@@ -10185,7 +9987,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.45413718380844</v>
+        <v>1.44293014180945</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.414089175001362</v>
@@ -10274,7 +10076,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.466963530579098</v>
+        <v>1.458650347012801</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.445650766961438</v>
@@ -10363,7 +10165,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.448923844772554</v>
+        <v>1.435189069188097</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.328647825022672</v>
@@ -10452,7 +10254,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.444875491900127</v>
+        <v>1.432713930133035</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.455022150876166</v>
@@ -10541,7 +10343,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.449345373534143</v>
+        <v>1.441855733043084</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.335840811430222</v>
@@ -10630,7 +10432,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.474755573231608</v>
+        <v>1.464042411241639</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.59752839146515</v>
@@ -10719,7 +10521,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.507297914979392</v>
+        <v>1.494813849305296</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.955851750134347</v>
@@ -10808,7 +10610,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.505181896592267</v>
+        <v>1.490575810237183</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.782945447258691</v>
@@ -10897,7 +10699,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.501082541997879</v>
+        <v>1.493416242366435</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.7899293636969</v>
@@ -10986,7 +10788,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.522091050225938</v>
+        <v>1.512637762939312</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.950499864603411</v>
@@ -11075,7 +10877,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.516627834029292</v>
+        <v>1.506101780590562</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.816705869309116</v>
@@ -11164,7 +10966,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.539998444284134</v>
+        <v>1.525537360977001</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.723993723543216</v>
@@ -11253,7 +11055,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.557175793702841</v>
+        <v>1.53502844758765</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.60432626579128</v>
@@ -11342,7 +11144,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.542563941841984</v>
+        <v>1.536125042505761</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.486805213077127</v>
@@ -11431,7 +11233,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.541261717885458</v>
+        <v>1.535878536988879</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.426164015165765</v>
@@ -11520,7 +11322,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.545063404398978</v>
+        <v>1.530074198311903</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.615851511640199</v>
@@ -11609,7 +11411,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.544847637431272</v>
+        <v>1.530019462896331</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.490387273250426</v>
@@ -11698,7 +11500,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.564652738552557</v>
+        <v>1.544003058656393</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.785606263779418</v>
@@ -11787,7 +11589,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.578337598922886</v>
+        <v>1.556974351931221</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.858020374242831</v>
@@ -11876,7 +11678,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.574670409182838</v>
+        <v>1.549592433827856</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.571975313906458</v>
@@ -11965,7 +11767,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.564785582197799</v>
+        <v>1.538877799257682</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.639662359751103</v>
@@ -12054,7 +11856,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.580997740756706</v>
+        <v>1.554047400228392</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.673499061616479</v>
@@ -12143,7 +11945,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.581979644567385</v>
+        <v>1.549302454923511</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.726343846882789</v>
@@ -12232,7 +12034,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.563269082485865</v>
+        <v>1.532531857688962</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.48654180603313</v>
@@ -12321,7 +12123,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.545214350679883</v>
+        <v>1.515899953965626</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.637675328118001</v>
@@ -12410,7 +12212,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.54514919484617</v>
+        <v>1.519788702004181</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.520533968638398</v>
@@ -12499,7 +12301,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.53494281281896</v>
+        <v>1.512709227531848</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.555056827494442</v>
@@ -12588,7 +12390,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.542244242537948</v>
+        <v>1.514765743486362</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.344240873285233</v>
@@ -12677,7 +12479,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.536427393213472</v>
+        <v>1.514298118636338</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.977872318981201</v>
@@ -12766,7 +12568,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.527100458680977</v>
+        <v>1.503276163370874</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.694104954153824</v>
@@ -12855,7 +12657,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.515669757898857</v>
+        <v>1.498019287761112</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.712738633967269</v>
@@ -12944,7 +12746,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.510408032649221</v>
+        <v>1.496565564131929</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.687699451241954</v>
@@ -13033,7 +12835,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.49530855488295</v>
+        <v>1.493441678624452</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.855972567934445</v>
@@ -13122,7 +12924,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.466786363490739</v>
+        <v>1.466248584241298</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.585380209611433</v>
@@ -13211,7 +13013,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.46945634796813</v>
+        <v>1.47578921404875</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.780308422623164</v>
@@ -13300,7 +13102,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.461757096348918</v>
+        <v>1.470029022798266</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.76156513494453</v>
@@ -13389,7 +13191,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.452533866550864</v>
+        <v>1.463153288162096</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.726146955479051</v>
@@ -13478,7 +13280,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.457753690383068</v>
+        <v>1.469551247548607</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.54349803164116</v>
@@ -13567,7 +13369,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.470332395189216</v>
+        <v>1.481017923708519</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.575780027180525</v>
@@ -13656,7 +13458,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.457761635288509</v>
+        <v>1.472983054651086</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.601565168773052</v>
@@ -13745,7 +13547,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.456062636523219</v>
+        <v>1.468079702558178</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.800032696445548</v>
@@ -13834,7 +13636,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.439941861182098</v>
+        <v>1.452715547387946</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.63490704090885</v>
@@ -13923,7 +13725,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.419527307593343</v>
+        <v>1.432171506628576</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.456075727287463</v>
@@ -14012,7 +13814,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.42619184341159</v>
+        <v>1.442161242222129</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.437866950628486</v>
@@ -14101,7 +13903,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.429533955015556</v>
+        <v>1.444417228078204</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.468119223155917</v>
@@ -14190,7 +13992,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.437285571474725</v>
+        <v>1.453471421245246</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.426100953276858</v>
@@ -14279,7 +14081,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.444697862169885</v>
+        <v>1.459554268433098</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.107677225322333</v>
@@ -14368,7 +14170,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.433390546144345</v>
+        <v>1.446137969864533</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.39059845932845</v>
@@ -14457,7 +14259,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.456580158925169</v>
+        <v>1.465508035951516</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.443828328775205</v>
@@ -14546,7 +14348,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.424997649836425</v>
+        <v>1.435541201071273</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.412393027538744</v>
@@ -14635,7 +14437,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.433083313956037</v>
+        <v>1.444522487506838</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.400153468862216</v>
@@ -14724,7 +14526,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.434738691392821</v>
+        <v>1.445336374042336</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.435469446477951</v>
@@ -14813,7 +14615,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.432829072658553</v>
+        <v>1.441164865483405</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.357076109656562</v>
@@ -14902,7 +14704,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.420500395054186</v>
+        <v>1.431806539433481</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.417253201418799</v>
@@ -14991,7 +14793,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.43932913857442</v>
+        <v>1.44457956479947</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.34991819846428</v>
@@ -15080,7 +14882,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.431937851909984</v>
+        <v>1.443712453922623</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.41523494020259</v>
@@ -15169,7 +14971,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.445844807416568</v>
+        <v>1.452807716410988</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.428449640937389</v>
@@ -15258,7 +15060,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.479660039767564</v>
+        <v>1.479699439567522</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.696260660396105</v>
@@ -15347,7 +15149,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.464835371930366</v>
+        <v>1.465596774818796</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.672611574907624</v>
@@ -15436,7 +15238,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.477406612091692</v>
+        <v>1.47736661621569</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.520556854736557</v>
@@ -15525,7 +15327,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.477617690240885</v>
+        <v>1.47479033910827</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.700371039243776</v>
@@ -15614,7 +15416,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.494164308025943</v>
+        <v>1.492678604870423</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.488431694871301</v>
@@ -15900,7 +15702,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.602417359333184</v>
+        <v>1.553443335092704</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.058067275049417</v>
@@ -15989,7 +15791,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.596446452106793</v>
+        <v>1.548989138882318</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.027384664821339</v>
@@ -16078,7 +15880,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.60646209780362</v>
+        <v>1.563186128702527</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.429737638873885</v>
@@ -16167,7 +15969,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.605882921442929</v>
+        <v>1.569081703053823</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.768969613891453</v>
@@ -16256,7 +16058,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.599802790143583</v>
+        <v>1.562833987257774</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.083469865240025</v>
@@ -16345,7 +16147,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.605131584348616</v>
+        <v>1.562325444308188</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.454759485264728</v>
@@ -16434,7 +16236,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.630280807844579</v>
+        <v>1.58221876265057</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.686897103740498</v>
@@ -16523,7 +16325,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.636009050080631</v>
+        <v>1.585953650482066</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.391039983170373</v>
@@ -16612,7 +16414,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.645490132588402</v>
+        <v>1.597014877178322</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.218099895693275</v>
@@ -16701,7 +16503,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.656071298611691</v>
+        <v>1.604458482462691</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.263804304174255</v>
@@ -16790,7 +16592,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.671522204308577</v>
+        <v>1.61632765986006</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.783617982141641</v>
@@ -16879,7 +16681,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.684951794631369</v>
+        <v>1.623409222964864</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.507301648398623</v>
@@ -16968,7 +16770,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.679867101316193</v>
+        <v>1.631160787404394</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.595685221041804</v>
@@ -17057,7 +16859,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.686698177916237</v>
+        <v>1.634937983972671</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.439757608461113</v>
@@ -17146,7 +16948,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.690198113178371</v>
+        <v>1.641525433944542</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.479827775219579</v>
@@ -17235,7 +17037,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.68483388323393</v>
+        <v>1.637554047215718</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.659500071125982</v>
@@ -17324,7 +17126,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.67960733470023</v>
+        <v>1.623693231968794</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.496659476801036</v>
@@ -17413,7 +17215,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.66484207088574</v>
+        <v>1.613008953350151</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.579270242688562</v>
@@ -17502,7 +17304,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.66956694122162</v>
+        <v>1.61781795059186</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.586229128041022</v>
@@ -17591,7 +17393,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.679548223261989</v>
+        <v>1.632224782159301</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.397516832897913</v>
@@ -17680,7 +17482,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.667227893430496</v>
+        <v>1.63056158555734</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.043432268627214</v>
@@ -17769,7 +17571,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.65190031678395</v>
+        <v>1.613475922455229</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.180234030920179</v>
@@ -17858,7 +17660,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.648972164225595</v>
+        <v>1.614588855050074</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.396225063307888</v>
@@ -17947,7 +17749,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.658462464130779</v>
+        <v>1.62236667468782</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.187935941888568</v>
@@ -18036,7 +17838,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.6504424884434</v>
+        <v>1.615581161740321</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.386964871298769</v>
@@ -18125,7 +17927,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.65120297636891</v>
+        <v>1.616311080243249</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.252357145858264</v>
@@ -18214,7 +18016,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.645381191449224</v>
+        <v>1.612598343780819</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.543189363158579</v>
@@ -18303,7 +18105,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.641814418744525</v>
+        <v>1.613392447109924</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.432410975050514</v>
@@ -18392,7 +18194,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.638893038829689</v>
+        <v>1.612223015359161</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.396308086349558</v>
@@ -18481,7 +18283,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.639084773552729</v>
+        <v>1.604313308182656</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.546497041608068</v>
@@ -18570,7 +18372,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.644677209392126</v>
+        <v>1.612537126052682</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.988444701694335</v>
@@ -18659,7 +18461,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.646189492419418</v>
+        <v>1.612022531724499</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.064226414181322</v>
@@ -18748,7 +18550,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.649880246222171</v>
+        <v>1.616519158465856</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.499005323514237</v>
@@ -18837,7 +18639,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.650950404437358</v>
+        <v>1.619778392666331</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.091377124983583</v>
@@ -18926,7 +18728,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.655000681359643</v>
+        <v>1.6239977503656</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.164889942780763</v>
@@ -19015,7 +18817,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.67157168557605</v>
+        <v>1.640115066090092</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.142740672284693</v>
@@ -19104,7 +18906,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.66899719296134</v>
+        <v>1.633201028180207</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.361879186582629</v>
@@ -19193,7 +18995,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.662026087117989</v>
+        <v>1.624611041069836</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.418055439980153</v>
@@ -19282,7 +19084,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.653041910240767</v>
+        <v>1.617345476438327</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.994528752097059</v>
@@ -19371,7 +19173,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.64993695271798</v>
+        <v>1.616479748034994</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.998390847808581</v>
@@ -19460,7 +19262,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.64399750515893</v>
+        <v>1.609783336077604</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.210526069983066</v>
@@ -19549,7 +19351,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.637721216630627</v>
+        <v>1.604639952800308</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.004975206511443</v>
@@ -19638,7 +19440,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.632990587587671</v>
+        <v>1.600596515361123</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.236749008110686</v>
@@ -19727,7 +19529,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.638396380587356</v>
+        <v>1.609239818874697</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.961005714370787</v>
@@ -19816,7 +19618,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.630275251714456</v>
+        <v>1.601597870075276</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.124409037656909</v>
@@ -19905,7 +19707,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.628254252887057</v>
+        <v>1.60320548881335</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.316718770924569</v>
@@ -19994,7 +19796,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.635030028054929</v>
+        <v>1.616459594470258</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.780840933525867</v>
@@ -20083,7 +19885,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.636421553693278</v>
+        <v>1.608533153410147</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.102486371715518</v>
@@ -20172,7 +19974,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.635778728637971</v>
+        <v>1.610321032670071</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.12625253965421</v>
@@ -20261,7 +20063,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.629202458218854</v>
+        <v>1.59188237694458</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.361937935754878</v>
@@ -20350,7 +20152,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.628657992186052</v>
+        <v>1.584246216034153</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.220995135350041</v>
@@ -20439,7 +20241,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.634799082403106</v>
+        <v>1.593819169138757</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.956172089629526</v>
@@ -20528,7 +20330,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.629908375374651</v>
+        <v>1.590066223184162</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.226252637237639</v>
@@ -20617,7 +20419,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.636166296360039</v>
+        <v>1.593642026537706</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.791713469061959</v>
@@ -20706,7 +20508,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.642387795240982</v>
+        <v>1.594683501399943</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.784189902178576</v>
@@ -20795,7 +20597,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.635149986535622</v>
+        <v>1.587314158475966</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.441323514152415</v>
@@ -20884,7 +20686,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.648058033316651</v>
+        <v>1.601809595170108</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.817112855150009</v>
@@ -20973,7 +20775,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.659972081225289</v>
+        <v>1.612456722075384</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.692839187993234</v>
@@ -21062,7 +20864,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.66427703862788</v>
+        <v>1.610338192596462</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.755172991791116</v>
@@ -21151,7 +20953,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.666073875046021</v>
+        <v>1.619448267716114</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.635459206625108</v>
@@ -21240,7 +21042,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.672108434523012</v>
+        <v>1.624035306600856</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.689039799435861</v>
@@ -21329,7 +21131,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.662735043538014</v>
+        <v>1.615487635354222</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.29716249155717</v>
@@ -21418,7 +21220,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.669846105044037</v>
+        <v>1.623439987189477</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.091369896238471</v>
@@ -21507,7 +21309,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.664320040427984</v>
+        <v>1.61341971710949</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.053965113715057</v>
@@ -21596,7 +21398,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.66067518396</v>
+        <v>1.616748186518598</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.268582336299622</v>
@@ -21685,7 +21487,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.657757601077723</v>
+        <v>1.618244083409987</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.205729176116349</v>
@@ -21774,7 +21576,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.659157005551006</v>
+        <v>1.622611003257396</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.091056338522707</v>
@@ -21863,7 +21665,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.667324144424345</v>
+        <v>1.633490877661459</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.216771410823044</v>
@@ -21952,7 +21754,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.666121778002807</v>
+        <v>1.629760302540833</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.40083272409293</v>
@@ -22041,7 +21843,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.651874968143591</v>
+        <v>1.623471901101639</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.265745639737264</v>
@@ -22130,7 +21932,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.655065955301536</v>
+        <v>1.628573621755754</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.126083214139574</v>
@@ -22219,7 +22021,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.637059250496932</v>
+        <v>1.610644610558534</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.125901694723195</v>
@@ -22308,7 +22110,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.62045838220636</v>
+        <v>1.598061535676383</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.112975086297938</v>
@@ -22397,7 +22199,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.604947109691185</v>
+        <v>1.587839651216219</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.087828303381538</v>
@@ -22486,7 +22288,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.59666403731684</v>
+        <v>1.582884161359699</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.139890243658738</v>
@@ -22575,7 +22377,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.609086453092636</v>
+        <v>1.596709778020592</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.848615877424157</v>
@@ -22861,7 +22663,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.470553412604525</v>
+        <v>1.436207002815766</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.622887242584306</v>
@@ -22950,7 +22752,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.492980219594032</v>
+        <v>1.453095718745653</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.578476005339283</v>
@@ -23039,7 +22841,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.487158913417159</v>
+        <v>1.449901039151498</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.409190325149807</v>
@@ -23128,7 +22930,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.468165645507499</v>
+        <v>1.43678497289988</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.558305064390032</v>
@@ -23217,7 +23019,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.461879593307435</v>
+        <v>1.432587225994319</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.535187876498012</v>
@@ -23306,7 +23108,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.442179226030459</v>
+        <v>1.410966013839195</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.551026023105426</v>
@@ -23395,7 +23197,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.449978488198386</v>
+        <v>1.41553317667407</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.473098889214171</v>
@@ -23484,7 +23286,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.454540310988555</v>
+        <v>1.42345138465872</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.579263559805325</v>
@@ -23573,7 +23375,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.454841813058372</v>
+        <v>1.420987007115016</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.59784757661348</v>
@@ -23662,7 +23464,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.476918741056805</v>
+        <v>1.434054798793035</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.605487050658148</v>
@@ -23751,7 +23553,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.466610180693859</v>
+        <v>1.431502789569412</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.57169459395885</v>
@@ -23840,7 +23642,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.477945961596688</v>
+        <v>1.434489516419734</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.750828734099031</v>
@@ -23929,7 +23731,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.472595927717776</v>
+        <v>1.439898431085461</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.985040573429119</v>
@@ -24018,7 +23820,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.472407429701654</v>
+        <v>1.442485722522696</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.823068506611794</v>
@@ -24107,7 +23909,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.477926696794835</v>
+        <v>1.449616717207411</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.105993176257424</v>
@@ -24196,7 +23998,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.494224830865936</v>
+        <v>1.466620838822579</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.083034673430358</v>
@@ -24285,7 +24087,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.490190465963061</v>
+        <v>1.462033120917437</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.907709969582918</v>
@@ -24374,7 +24176,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.491067040462336</v>
+        <v>1.462442105004288</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.908724233581888</v>
@@ -24463,7 +24265,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.505722165042392</v>
+        <v>1.474268426540326</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.652195455199746</v>
@@ -24552,7 +24354,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.508798930982746</v>
+        <v>1.474723776677052</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.053232762136918</v>
@@ -24641,7 +24443,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.516845940454292</v>
+        <v>1.482721317838209</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.205818925100024</v>
@@ -24730,7 +24532,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.512496288162199</v>
+        <v>1.483416652459396</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.12995225054397</v>
@@ -24819,7 +24621,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.506807245552011</v>
+        <v>1.478187667629934</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.072859984769627</v>
@@ -24908,7 +24710,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.502949621106172</v>
+        <v>1.478041654666072</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.849266382070255</v>
@@ -24997,7 +24799,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.514962810234039</v>
+        <v>1.47954506509495</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.44810084646883</v>
@@ -25086,7 +24888,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.541360146945012</v>
+        <v>1.507195370800622</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.988537170518153</v>
@@ -25175,7 +24977,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.545291621170843</v>
+        <v>1.510619802949448</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.757731775905818</v>
@@ -25264,7 +25066,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.547897462528635</v>
+        <v>1.516959975871333</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.920287063451252</v>
@@ -25353,7 +25155,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.547370914248045</v>
+        <v>1.515377772439423</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.817400052257408</v>
@@ -25442,7 +25244,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.541267708655756</v>
+        <v>1.501401259124457</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.026040791655916</v>
@@ -25531,7 +25333,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.539999652498242</v>
+        <v>1.49383812404898</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.942151365525517</v>
@@ -25620,7 +25422,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.541947790750949</v>
+        <v>1.489638371784659</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.868307791550653</v>
@@ -25709,7 +25511,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.536849682095065</v>
+        <v>1.483106033324377</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.997844218233763</v>
@@ -25798,7 +25600,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.539313004104764</v>
+        <v>1.484601067556845</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.727113500868753</v>
@@ -25887,7 +25689,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.544247845979944</v>
+        <v>1.489210756012076</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.760049933337754</v>
@@ -25976,7 +25778,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.552478071453491</v>
+        <v>1.495133113861675</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.679307744880822</v>
@@ -26065,7 +25867,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.555794352690776</v>
+        <v>1.486182712842634</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.855042815224172</v>
@@ -26154,7 +25956,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.554589991000424</v>
+        <v>1.48455377728141</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.764058083479627</v>
@@ -26243,7 +26045,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.561412028527738</v>
+        <v>1.487643155069495</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.830776062626693</v>
@@ -26332,7 +26134,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.53908113086991</v>
+        <v>1.481274872083093</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.737536425393332</v>
@@ -26421,7 +26223,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.533589612156048</v>
+        <v>1.474836037146337</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.753078007751762</v>
@@ -26510,7 +26312,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.522226955776977</v>
+        <v>1.461049676644441</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.794524604976249</v>
@@ -26599,7 +26401,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.506515570949701</v>
+        <v>1.457303940568301</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.674418266043413</v>
@@ -26688,7 +26490,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.505923215545425</v>
+        <v>1.453939408607858</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.860584857182477</v>
@@ -26777,7 +26579,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.510387229432357</v>
+        <v>1.467724186911151</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.678864937997433</v>
@@ -26866,7 +26668,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.509221584889204</v>
+        <v>1.470322125391213</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.682509000305797</v>
@@ -26955,7 +26757,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.505807582478034</v>
+        <v>1.47789496478661</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.843500761486879</v>
@@ -27044,7 +26846,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.517541385908408</v>
+        <v>1.486700395542048</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.905103849717017</v>
@@ -27133,7 +26935,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.515747106694223</v>
+        <v>1.489622728154404</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.760185641001677</v>
@@ -27222,7 +27024,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.51364620823842</v>
+        <v>1.485708774216522</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.923647297982655</v>
@@ -27311,7 +27113,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.510813932649485</v>
+        <v>1.483223531079892</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.702472790399507</v>
@@ -27400,7 +27202,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.506074788199503</v>
+        <v>1.486404598506326</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.560036134020903</v>
@@ -27489,7 +27291,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.505988926124501</v>
+        <v>1.483645455901864</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.907963412158303</v>
@@ -27578,7 +27380,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.511205952469157</v>
+        <v>1.493587930474706</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.766111215633109</v>
@@ -27667,7 +27469,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.525387988081565</v>
+        <v>1.50561111996173</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.944169511526836</v>
@@ -27756,7 +27558,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.507365699620423</v>
+        <v>1.48738926236433</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.741817853729471</v>
@@ -27845,7 +27647,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.513466579829785</v>
+        <v>1.490917893477794</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.822149359315886</v>
@@ -27934,7 +27736,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.506656315684752</v>
+        <v>1.484160112670757</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.75677519970705</v>
@@ -28023,7 +27825,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.50919674709773</v>
+        <v>1.489388771219115</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.676212512773286</v>
@@ -28112,7 +27914,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.510058812681869</v>
+        <v>1.489537393263472</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.8581963760726</v>
@@ -28201,7 +28003,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.500147715231667</v>
+        <v>1.479136613686008</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.534646428956798</v>
@@ -28290,7 +28092,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.490850671204016</v>
+        <v>1.466773858324234</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.846031927998071</v>
@@ -28379,7 +28181,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.489142208574426</v>
+        <v>1.465626037950415</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.801718225525962</v>
@@ -28468,7 +28270,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.496071234985087</v>
+        <v>1.465012157474415</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.766786278209952</v>
@@ -28557,7 +28359,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.492365514769507</v>
+        <v>1.46151835113859</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.663068199334129</v>
@@ -28646,7 +28448,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.499198649894269</v>
+        <v>1.465060990178893</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.582344354602735</v>
@@ -28735,7 +28537,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.489772783432356</v>
+        <v>1.457419374250692</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.476772749008974</v>
@@ -28824,7 +28626,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.492357769277472</v>
+        <v>1.462960072903307</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.831465103132941</v>
@@ -28913,7 +28715,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.487129604268419</v>
+        <v>1.453234863967803</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.816183559786289</v>
@@ -29002,7 +28804,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.493754560189928</v>
+        <v>1.461072369212578</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.715146804877369</v>
@@ -29091,7 +28893,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.511646848324336</v>
+        <v>1.475396385622136</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.778621415517347</v>
@@ -29180,7 +28982,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.518271170303451</v>
+        <v>1.479568451781757</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.096267435989398</v>
@@ -29269,7 +29071,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.534630051712585</v>
+        <v>1.491810148374222</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.073961139522066</v>
@@ -29358,7 +29160,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.524355190266502</v>
+        <v>1.482129821550701</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.18610527462585</v>
@@ -29447,7 +29249,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.530032784291974</v>
+        <v>1.487355077103114</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.816598346273046</v>
@@ -29536,7 +29338,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.517639718307491</v>
+        <v>1.478939399887232</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.670683155612308</v>
@@ -29822,7 +29624,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.40146045177228</v>
+        <v>1.378509846677717</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.496628763592194</v>
@@ -29911,7 +29713,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.407947038962431</v>
+        <v>1.388009122742366</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.240467834181844</v>
@@ -30000,7 +29802,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.405058218764276</v>
+        <v>1.387288876488919</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.371289950513535</v>
@@ -30089,7 +29891,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.395298326511554</v>
+        <v>1.377354516362666</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.334827956378424</v>
@@ -30178,7 +29980,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.381244401833261</v>
+        <v>1.367004630843641</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.394230363016916</v>
@@ -30267,7 +30069,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.38870056170379</v>
+        <v>1.384811087657521</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.300255683861672</v>
@@ -30356,7 +30158,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.394097053571674</v>
+        <v>1.385022518580235</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.388892538559987</v>
@@ -30445,7 +30247,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.385587095325223</v>
+        <v>1.376990731106958</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.447825080830416</v>
@@ -30534,7 +30336,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.387735001793316</v>
+        <v>1.378365500355353</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.384016983970402</v>
@@ -30623,7 +30425,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.406968487325339</v>
+        <v>1.396079615096674</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.287099371954818</v>
@@ -30712,7 +30514,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.38067506150348</v>
+        <v>1.368118852984546</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.343935101891626</v>
@@ -30801,7 +30603,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.371016864151439</v>
+        <v>1.352435750322421</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.382194556210271</v>
@@ -30890,7 +30692,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.379815604194838</v>
+        <v>1.360976789988387</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.39092139888475</v>
@@ -30979,7 +30781,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.351628907820941</v>
+        <v>1.334715117179597</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.411496942687707</v>
@@ -31068,7 +30870,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.367127303561623</v>
+        <v>1.350736481703991</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.400575708423587</v>
@@ -31157,7 +30959,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.369346484583918</v>
+        <v>1.353232166797575</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.2797733644545</v>
@@ -31246,7 +31048,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.386234999327194</v>
+        <v>1.358202989521956</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.386672409352911</v>
@@ -31335,7 +31137,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.377279533067292</v>
+        <v>1.349321844329346</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.255465615661124</v>
@@ -31424,7 +31226,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.390107511583642</v>
+        <v>1.366421646226616</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.3532648591374</v>
@@ -31513,7 +31315,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.401984067385864</v>
+        <v>1.372670585569999</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.380359283670192</v>
@@ -31602,7 +31404,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.392388530427202</v>
+        <v>1.360557902107332</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.448014647065112</v>
@@ -31691,7 +31493,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.394069584963888</v>
+        <v>1.366948043031348</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.462654513606898</v>
@@ -31780,7 +31582,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.397428944980635</v>
+        <v>1.368585874978312</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.536968713686528</v>
@@ -31869,7 +31671,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.409041902216852</v>
+        <v>1.382957818361719</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.449488258347491</v>
@@ -31958,7 +31760,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.36628637337963</v>
+        <v>1.346837779181897</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.216142681394858</v>
@@ -32047,7 +31849,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.374644043373339</v>
+        <v>1.355583977798603</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.107068401892236</v>
@@ -32136,7 +31938,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.374530225046096</v>
+        <v>1.356881111761658</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.14694256240953</v>
@@ -32225,7 +32027,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.364623269808451</v>
+        <v>1.354100253891908</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.102929007195602</v>
@@ -32314,7 +32116,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.387014091432785</v>
+        <v>1.380914953158945</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.069298079652359</v>
@@ -32403,7 +32205,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.396879551391625</v>
+        <v>1.381025270514297</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.098991261511154</v>
@@ -32492,7 +32294,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.396531996408628</v>
+        <v>1.381200574146149</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.159658112031629</v>
@@ -32581,7 +32383,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.385913162034654</v>
+        <v>1.375294610241434</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.948987727796747</v>
@@ -32670,7 +32472,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.391715264632395</v>
+        <v>1.380492605363054</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.18770531810547</v>
@@ -32759,7 +32561,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.371062798322705</v>
+        <v>1.357674398350548</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.145491052427738</v>
@@ -32848,7 +32650,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.37370978503064</v>
+        <v>1.365799240992644</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.073491733474627</v>
@@ -32937,7 +32739,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.363184379081191</v>
+        <v>1.359826162423384</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.154188875432727</v>
@@ -33026,7 +32828,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.358897640776942</v>
+        <v>1.350128075371458</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.171999754978519</v>
@@ -33115,7 +32917,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.377471474576693</v>
+        <v>1.362865230075405</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.105614329405217</v>
@@ -33204,7 +33006,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.38749611946448</v>
+        <v>1.370534879446627</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.164692221750348</v>
@@ -33293,7 +33095,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.428247017431578</v>
+        <v>1.408261724248453</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.090125911032652</v>
@@ -33382,7 +33184,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.413388806690524</v>
+        <v>1.394089705591479</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.381239456712085</v>
@@ -33471,7 +33273,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.424520292520592</v>
+        <v>1.402632507899247</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.266201075991907</v>
@@ -33560,7 +33362,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.434651662073287</v>
+        <v>1.413332349855386</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.320160776545028</v>
@@ -33649,7 +33451,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.438102277776288</v>
+        <v>1.417156968074548</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.379323926416194</v>
@@ -33738,7 +33540,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.401577819035508</v>
+        <v>1.391814781323676</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.337651713608493</v>
@@ -33827,7 +33629,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.394011506222278</v>
+        <v>1.386173580817751</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.284050273678765</v>
@@ -33916,7 +33718,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.416601291160415</v>
+        <v>1.410470536975108</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.233175027447728</v>
@@ -34005,7 +33807,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.423600964757502</v>
+        <v>1.415005237558782</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.320087745534233</v>
@@ -34094,7 +33896,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.449711200854488</v>
+        <v>1.442234761546912</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.160408188813175</v>
@@ -34183,7 +33985,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.466270843079782</v>
+        <v>1.444982658672314</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.304019803854294</v>
@@ -34272,7 +34074,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.473277737804885</v>
+        <v>1.449487523333676</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.281982791384913</v>
@@ -34361,7 +34163,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.429958271266548</v>
+        <v>1.413607268060991</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.272622493140963</v>
@@ -34450,7 +34252,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.423385985277919</v>
+        <v>1.418899375400156</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.249996824103629</v>
@@ -34539,7 +34341,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.420974820415467</v>
+        <v>1.414822957545135</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.332983581905761</v>
@@ -34628,7 +34430,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.42598445399583</v>
+        <v>1.419361033868316</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.334272031666108</v>
@@ -34717,7 +34519,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.420181196210115</v>
+        <v>1.411505637669185</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.322922507252106</v>
@@ -34806,7 +34608,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.422531282104833</v>
+        <v>1.412965101925266</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.226675237452615</v>
@@ -34895,7 +34697,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.417708106056631</v>
+        <v>1.407081913681574</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.31761902308133</v>
@@ -34984,7 +34786,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.397389220696728</v>
+        <v>1.384289193294374</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.218858429722492</v>
@@ -35073,7 +34875,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.425049707184083</v>
+        <v>1.407417512610585</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.226407971031626</v>
@@ -35162,7 +34964,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.398649320407744</v>
+        <v>1.385801267513503</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.283518548714681</v>
@@ -35251,7 +35053,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.393260484876163</v>
+        <v>1.382301536989904</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.19428398407777</v>
@@ -35340,7 +35142,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.379996391178726</v>
+        <v>1.36778542075149</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.291006253282746</v>
@@ -35429,7 +35231,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.36707757255788</v>
+        <v>1.361538548645177</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.275295890513</v>
@@ -35518,7 +35320,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.35600048576037</v>
+        <v>1.356195385723965</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.177718992616483</v>
@@ -35607,7 +35409,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.334298403006567</v>
+        <v>1.340657080412352</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.24628224252803</v>
@@ -35696,7 +35498,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.364850143838007</v>
+        <v>1.368405580446869</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.091896331226585</v>
@@ -35785,7 +35587,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.366277383359435</v>
+        <v>1.364225172508088</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.277511386041184</v>
@@ -35874,7 +35676,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.365092154135568</v>
+        <v>1.36173093771777</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.275636557784365</v>
@@ -35963,7 +35765,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.338272579627557</v>
+        <v>1.337260374614314</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.26465482827636</v>
@@ -36052,7 +35854,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.356483325959797</v>
+        <v>1.353775016109429</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.101008148384526</v>
@@ -36141,7 +35943,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.356810389534405</v>
+        <v>1.357513445169942</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.228924361180612</v>
@@ -36230,7 +36032,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.339635213767364</v>
+        <v>1.340391089307752</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.17397413909516</v>
@@ -36319,7 +36121,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.351549794180661</v>
+        <v>1.354095023033106</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.235834289804658</v>
@@ -36408,7 +36210,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.349026692765673</v>
+        <v>1.356236833057245</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.220392763320031</v>
@@ -36497,7 +36299,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.345017728925935</v>
+        <v>1.348463643751109</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.226220097177756</v>
@@ -36783,7 +36585,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.532923055100044</v>
+        <v>1.515745081523155</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.142518574733255</v>
@@ -36872,7 +36674,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.537313171034038</v>
+        <v>1.52047681718186</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.240801220500984</v>
@@ -36961,7 +36763,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.540702521335854</v>
+        <v>1.524266430631138</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.997529920302146</v>
@@ -37050,7 +36852,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.535658524928041</v>
+        <v>1.52436918368552</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.829581146240442</v>
@@ -37139,7 +36941,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.534784571755126</v>
+        <v>1.523800195593788</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.669301737711597</v>
@@ -37228,7 +37030,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.532707846972036</v>
+        <v>1.517557812629528</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.884450035334404</v>
@@ -37317,7 +37119,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.551999185655388</v>
+        <v>1.528907986457882</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.131777354183655</v>
@@ -37406,7 +37208,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.555615265567609</v>
+        <v>1.53406561975105</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.800017367187817</v>
@@ -37495,7 +37297,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.579506784135691</v>
+        <v>1.553701213253073</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.101762347805367</v>
@@ -37584,7 +37386,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.596570418055098</v>
+        <v>1.563009319093386</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.917203116993551</v>
@@ -37673,7 +37475,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.592377825162386</v>
+        <v>1.554977761001392</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.972507338709738</v>
@@ -37762,7 +37564,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.575689676625065</v>
+        <v>1.529744673118122</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.270321510398345</v>
@@ -37851,7 +37653,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.564760549313371</v>
+        <v>1.522686918734117</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.044450683692763</v>
@@ -37940,7 +37742,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.563236891609628</v>
+        <v>1.524886741451519</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.080557820471803</v>
@@ -38029,7 +37831,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.561257355460732</v>
+        <v>1.525335130780726</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.870762337962677</v>
@@ -38118,7 +37920,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.565535145241371</v>
+        <v>1.530027912736666</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.787233873996516</v>
@@ -38207,7 +38009,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.544162964742417</v>
+        <v>1.512053510123193</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.71677922970856</v>
@@ -38296,7 +38098,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.537671543272403</v>
+        <v>1.508350681460227</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.733158609043114</v>
@@ -38385,7 +38187,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.539012322626023</v>
+        <v>1.510822418048578</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.915087427645501</v>
@@ -38474,7 +38276,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.545597784977071</v>
+        <v>1.515708226552391</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.02426654264007</v>
@@ -38563,7 +38365,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.538422162653125</v>
+        <v>1.512148319680425</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.769187997786017</v>
@@ -38652,7 +38454,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.52398961354836</v>
+        <v>1.503753093025355</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.905705812626288</v>
@@ -38741,7 +38543,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.527016034741366</v>
+        <v>1.511134249544586</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.828799302511174</v>
@@ -38830,7 +38632,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.526064402897524</v>
+        <v>1.509357552024663</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.833966230166999</v>
@@ -38919,7 +38721,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.51598271036632</v>
+        <v>1.508057019435222</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.69493690795859</v>
@@ -39008,7 +38810,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.511424196311183</v>
+        <v>1.500826335765052</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.849587234997428</v>
@@ -39097,7 +38899,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.517545131019525</v>
+        <v>1.497300200244287</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.877964030119708</v>
@@ -39186,7 +38988,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.499255406266821</v>
+        <v>1.491729623483076</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.871432046435003</v>
@@ -39275,7 +39077,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.490742937775203</v>
+        <v>1.48467842979295</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.83816082386652</v>
@@ -39364,7 +39166,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.485755741008474</v>
+        <v>1.469057135488861</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.839694092544439</v>
@@ -39453,7 +39255,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.491043015263641</v>
+        <v>1.473233766428905</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.657012187348529</v>
@@ -39542,7 +39344,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.494893346204912</v>
+        <v>1.477671358601625</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.710394438215526</v>
@@ -39631,7 +39433,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.513893881090939</v>
+        <v>1.492603879678507</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.829037625766054</v>
@@ -39720,7 +39522,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.519891293793419</v>
+        <v>1.498558750895516</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.524466128634687</v>
@@ -39809,7 +39611,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.520232859008495</v>
+        <v>1.495883258240842</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.572585610705287</v>
@@ -39898,7 +39700,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.53992725945815</v>
+        <v>1.513673931567634</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.965146358767523</v>
@@ -39987,7 +39789,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.550036406136285</v>
+        <v>1.515875798903719</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.879259772995704</v>
@@ -40076,7 +39878,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.541535929792798</v>
+        <v>1.506693697228313</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.696371210134076</v>
@@ -40165,7 +39967,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.549603409248931</v>
+        <v>1.513023483610164</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.709203234043489</v>
@@ -40254,7 +40056,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.549072922226443</v>
+        <v>1.510751115861795</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.691875823059171</v>
@@ -40343,7 +40145,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.551464074572748</v>
+        <v>1.515474390089802</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.005327627289307</v>
@@ -40432,7 +40234,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.562987002921964</v>
+        <v>1.530184275641533</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.067945973067102</v>
@@ -40521,7 +40323,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.572473873707855</v>
+        <v>1.536813448608655</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.041747201044702</v>
@@ -40610,7 +40412,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.574990028544823</v>
+        <v>1.533274932810512</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.217999751561403</v>
@@ -40699,7 +40501,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.576135003675347</v>
+        <v>1.540473385877099</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.091741520147365</v>
@@ -40788,7 +40590,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.581553362224086</v>
+        <v>1.54923174837053</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.004632253017341</v>
@@ -40877,7 +40679,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.604824953017957</v>
+        <v>1.566980082278742</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.216802106653444</v>
@@ -40966,7 +40768,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.583655076086298</v>
+        <v>1.55802107692603</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.092231301043957</v>
@@ -41055,7 +40857,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.580553503523604</v>
+        <v>1.554126392298298</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.089605868419575</v>
@@ -41144,7 +40946,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.576259573731582</v>
+        <v>1.554010395646283</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.911722748510961</v>
@@ -41233,7 +41035,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.580228811351239</v>
+        <v>1.557093961497659</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.038278601530536</v>
@@ -41322,7 +41124,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.583500573220739</v>
+        <v>1.565473172476684</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.632761184713474</v>
@@ -41411,7 +41213,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.583580283567424</v>
+        <v>1.564841121461239</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.874932318164074</v>
@@ -41500,7 +41302,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.577166851277688</v>
+        <v>1.560057192319461</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.907912866141772</v>
@@ -41589,7 +41391,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.574343004599309</v>
+        <v>1.557584714669317</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.154778398923411</v>
@@ -41678,7 +41480,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.56260105588429</v>
+        <v>1.545518728998245</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.207945679051479</v>
@@ -41767,7 +41569,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.552978171211194</v>
+        <v>1.539044174900312</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.092327270587105</v>
@@ -41856,7 +41658,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.558765918341575</v>
+        <v>1.543798955056347</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.870170742033515</v>
@@ -41945,7 +41747,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.555708402524588</v>
+        <v>1.543219592059526</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.018763432550596</v>
@@ -42034,7 +41836,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.571798568095963</v>
+        <v>1.56219332327069</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.099196271063577</v>
@@ -42123,7 +41925,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.552116887083822</v>
+        <v>1.539738617568121</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.158245898539005</v>
@@ -42212,7 +42014,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.543347696823709</v>
+        <v>1.530039942408086</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.706813232689967</v>
@@ -42301,7 +42103,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.544457641661481</v>
+        <v>1.523479331365613</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.939245851642451</v>
@@ -42390,7 +42192,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.542537447694736</v>
+        <v>1.523019409089361</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.820345059285222</v>
@@ -42479,7 +42281,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.534401756684808</v>
+        <v>1.521899289980522</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.327466950021111</v>
@@ -42568,7 +42370,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.525534311387715</v>
+        <v>1.5137279153395</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.281132878457242</v>
@@ -42657,7 +42459,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.524391895521557</v>
+        <v>1.510781617348253</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.970970824765066</v>
@@ -42746,7 +42548,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.532819989972579</v>
+        <v>1.518801102228152</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.303954745135605</v>
@@ -42835,7 +42637,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.535327472693538</v>
+        <v>1.519262563737647</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.306037194400315</v>
@@ -42924,7 +42726,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.539624572954794</v>
+        <v>1.525253151055855</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.87550167343616</v>
@@ -43013,7 +42815,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.552818992566567</v>
+        <v>1.535385600080269</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.089419704815822</v>
@@ -43102,7 +42904,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.5522306434153</v>
+        <v>1.532667000533468</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.207941032357915</v>
@@ -43191,7 +42993,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.538883219840402</v>
+        <v>1.524809174858169</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.338602450665539</v>
@@ -43280,7 +43082,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.537626202851921</v>
+        <v>1.521128216026423</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.980963415885808</v>
@@ -43369,7 +43171,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.51588165492796</v>
+        <v>1.504451971394886</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.031095708966417</v>
@@ -43458,7 +43260,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.534064744465152</v>
+        <v>1.525320337095671</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.846729743411397</v>
@@ -43744,7 +43546,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.379944653911224</v>
+        <v>1.35841629060299</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.208911866407546</v>
@@ -43833,7 +43635,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.400136503382914</v>
+        <v>1.379765091049804</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.094998047042585</v>
@@ -43922,7 +43724,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.394652041269784</v>
+        <v>1.375531787160346</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.224331768078549</v>
@@ -44011,7 +43813,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.387472133756275</v>
+        <v>1.367192873219436</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.166216395448093</v>
@@ -44100,7 +43902,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.364759583166011</v>
+        <v>1.347401891398759</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.139943968073863</v>
@@ -44189,7 +43991,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.352151996831479</v>
+        <v>1.335702295003333</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.137885647985799</v>
@@ -44278,7 +44080,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.360787050241093</v>
+        <v>1.340577256337279</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.180477277501759</v>
@@ -44367,7 +44169,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.353602613559906</v>
+        <v>1.331967403859193</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.223041616979414</v>
@@ -44456,7 +44258,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.345173892858103</v>
+        <v>1.323866850216359</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.137554587730464</v>
@@ -44545,7 +44347,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.376863351163061</v>
+        <v>1.350312123743849</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.96534207510353</v>
@@ -44634,7 +44436,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.379835933951515</v>
+        <v>1.35276830648402</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.358718283324437</v>
@@ -44723,7 +44525,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.379531765525699</v>
+        <v>1.350577733375592</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.355056266771989</v>
@@ -44812,7 +44614,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.368133388206777</v>
+        <v>1.340670673556961</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.436944986685043</v>
@@ -44901,7 +44703,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.360112291649874</v>
+        <v>1.336496330472123</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.456612475548609</v>
@@ -44990,7 +44792,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.367512950447886</v>
+        <v>1.344955589437924</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.411269701114276</v>
@@ -45079,7 +44881,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.381729804242392</v>
+        <v>1.357848559647415</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.297503982998699</v>
@@ -45168,7 +44970,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.359153268966888</v>
+        <v>1.337588560219758</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.140819846730514</v>
@@ -45257,7 +45059,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.367774018067338</v>
+        <v>1.344529272988132</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.207480301310175</v>
@@ -45346,7 +45148,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.364377061146035</v>
+        <v>1.349160641721698</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.191654457198468</v>
@@ -45435,7 +45237,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.385347349587863</v>
+        <v>1.364341279729107</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.431022621236583</v>
@@ -45524,7 +45326,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.416405156019796</v>
+        <v>1.392113550375628</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.330318745367496</v>
@@ -45613,7 +45415,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.415200161973262</v>
+        <v>1.387722917748555</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.269504938036516</v>
@@ -45702,7 +45504,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.404118484469193</v>
+        <v>1.385263261875214</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.318973023357674</v>
@@ -45791,7 +45593,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.417545911931427</v>
+        <v>1.4017440025539</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.399776234356162</v>
@@ -45880,7 +45682,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.41407152433585</v>
+        <v>1.400391701304351</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.280768751774519</v>
@@ -45969,7 +45771,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.424640044065661</v>
+        <v>1.410215909842124</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.315974510078</v>
@@ -46058,7 +45860,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.443461110949277</v>
+        <v>1.414594123293497</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.101571094274683</v>
@@ -46147,7 +45949,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.421816097299403</v>
+        <v>1.414989521618803</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.111473588557497</v>
@@ -46236,7 +46038,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.416839213319677</v>
+        <v>1.409754956842915</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.113611419396761</v>
@@ -46325,7 +46127,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.413119473657687</v>
+        <v>1.395962772331083</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.149165592336701</v>
@@ -46414,7 +46216,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.40966922605568</v>
+        <v>1.386508158605083</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.037759736925425</v>
@@ -46503,7 +46305,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.431414939472825</v>
+        <v>1.401256125128602</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.137238895065658</v>
@@ -46592,7 +46394,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.447643329061539</v>
+        <v>1.418382060888432</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.225712839021331</v>
@@ -46681,7 +46483,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.451443750287048</v>
+        <v>1.4225573623457</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.04774205852239</v>
@@ -46770,7 +46572,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.447773129116348</v>
+        <v>1.419024025276167</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.053332289903611</v>
@@ -46859,7 +46661,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.450769250762451</v>
+        <v>1.423089721733661</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.217786669129223</v>
@@ -46948,7 +46750,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.468225114691487</v>
+        <v>1.432356054097388</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.177000185080392</v>
@@ -47037,7 +46839,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.435168464669783</v>
+        <v>1.402183359890875</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.057244723012011</v>
@@ -47126,7 +46928,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.416129948396552</v>
+        <v>1.384682892772625</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.160848974303579</v>
@@ -47215,7 +47017,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.412990786557723</v>
+        <v>1.381117046018031</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.073750972476978</v>
@@ -47304,7 +47106,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.418148188602209</v>
+        <v>1.381802352052415</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.074466156267413</v>
@@ -47393,7 +47195,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.437410870393802</v>
+        <v>1.396947191358907</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.040822583963235</v>
@@ -47482,7 +47284,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.414199345640105</v>
+        <v>1.378944946091897</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.280784322953174</v>
@@ -47571,7 +47373,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.400992536392502</v>
+        <v>1.367850761573968</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.218723725484908</v>
@@ -47660,7 +47462,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.38010011124205</v>
+        <v>1.354770912224584</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.238645117271176</v>
@@ -47749,7 +47551,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.384450822670468</v>
+        <v>1.3640183348876</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.37288841656646</v>
@@ -47838,7 +47640,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.370040613201149</v>
+        <v>1.354605948596569</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.391742390409282</v>
@@ -47927,7 +47729,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.346572322635271</v>
+        <v>1.330138985382994</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.356027162252579</v>
@@ -48016,7 +47818,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.34561072897752</v>
+        <v>1.328854714342343</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.353307533815802</v>
@@ -48105,7 +47907,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.334012543563462</v>
+        <v>1.318326482098311</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.388468109318422</v>
@@ -48194,7 +47996,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.330751755855091</v>
+        <v>1.31471987668986</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.343566303287749</v>
@@ -48283,7 +48085,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.340727305030867</v>
+        <v>1.324493289007683</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.391163295842414</v>
@@ -48372,7 +48174,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.364444376750276</v>
+        <v>1.350500037516548</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.172966965786798</v>
@@ -48461,7 +48263,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.362924087444798</v>
+        <v>1.349781432024697</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.355701945045904</v>
@@ -48550,7 +48352,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.364619934750359</v>
+        <v>1.354637239744188</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.416305072374292</v>
@@ -48639,7 +48441,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.360630116058883</v>
+        <v>1.351756443578864</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.294960279552303</v>
@@ -48728,7 +48530,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.353091104143685</v>
+        <v>1.344117097167916</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.368907779965471</v>
@@ -48817,7 +48619,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.381732691689583</v>
+        <v>1.371050786217776</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.397967540645452</v>
@@ -48906,7 +48708,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.384120250787985</v>
+        <v>1.371644743603814</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.404809220353282</v>
@@ -48995,7 +48797,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.40452671611459</v>
+        <v>1.388787531606527</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.2874284783524</v>
@@ -49084,7 +48886,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.42288650891413</v>
+        <v>1.401276537711892</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.068854402793643</v>
@@ -49173,7 +48975,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.426851574401673</v>
+        <v>1.408232293917362</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.275115746199476</v>
@@ -49262,7 +49064,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.443313749233267</v>
+        <v>1.425185616934928</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.47031302898377</v>
@@ -49351,7 +49153,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.41480662774554</v>
+        <v>1.400154353935816</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.251040488918695</v>
@@ -49440,7 +49242,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.429556984296953</v>
+        <v>1.419197997738104</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.361428136207985</v>
@@ -49529,7 +49331,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.426069835759874</v>
+        <v>1.416237017584427</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.357605444720141</v>
@@ -49618,7 +49420,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.432134411039829</v>
+        <v>1.424051495555348</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.371395149509391</v>
@@ -49707,7 +49509,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.42514837198965</v>
+        <v>1.416688338698852</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.422592066060449</v>
@@ -49796,7 +49598,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.434602633694706</v>
+        <v>1.420243326007663</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.389914130617983</v>
@@ -49885,7 +49687,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.4252848780359</v>
+        <v>1.418112473483712</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.248504422661812</v>
@@ -49974,7 +49776,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.42404358860082</v>
+        <v>1.414925269434853</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.343513645338414</v>
@@ -50063,7 +49865,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.447932229074771</v>
+        <v>1.434449262923153</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.296494247199701</v>
@@ -50152,7 +49954,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.445615308295301</v>
+        <v>1.433583175300948</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.363074267612135</v>
@@ -50241,7 +50043,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.47010982108085</v>
+        <v>1.453844822217432</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.264892676684386</v>
@@ -50330,7 +50132,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.467135353692264</v>
+        <v>1.456155840007154</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.373084313972684</v>
@@ -50419,7 +50221,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.469365163881238</v>
+        <v>1.461333184107217</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.398672389241924</v>
